--- a/ValueSet-tnm-distant-metastases-category-max-vs.xlsx
+++ b/ValueSet-tnm-distant-metastases-category-max-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-07T14:26:09+00:00</t>
+    <t>2024-04-07T14:51:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-tnm-distant-metastases-category-max-vs.xlsx
+++ b/ValueSet-tnm-distant-metastases-category-max-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-07T14:51:37+00:00</t>
+    <t>2024-04-07T14:56:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-tnm-distant-metastases-category-max-vs.xlsx
+++ b/ValueSet-tnm-distant-metastases-category-max-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-07T14:56:06+00:00</t>
+    <t>2024-04-08T13:30:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-tnm-distant-metastases-category-max-vs.xlsx
+++ b/ValueSet-tnm-distant-metastases-category-max-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-08T13:30:59+00:00</t>
+    <t>2024-04-08T16:49:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-tnm-distant-metastases-category-max-vs.xlsx
+++ b/ValueSet-tnm-distant-metastases-category-max-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-08T16:49:27+00:00</t>
+    <t>2024-04-08T16:58:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-tnm-distant-metastases-category-max-vs.xlsx
+++ b/ValueSet-tnm-distant-metastases-category-max-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-08T16:58:24+00:00</t>
+    <t>2024-05-22T07:04:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -73,7 +73,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>IDG Institut für digitale Gesundheitsdaten RLP gGmbH (https://www.idg-rlp.de/, info@idg-rlp.de)</t>
   </si>
   <si>
     <t>Description</t>

--- a/ValueSet-tnm-distant-metastases-category-max-vs.xlsx
+++ b/ValueSet-tnm-distant-metastases-category-max-vs.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include ValueSets" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from tnm" r:id="rId5" sheetId="3"/>
+    <sheet name="Include from Krebsstadium Cod" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-22T07:04:28+00:00</t>
+    <t>2024-05-28T11:23:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-tnm-distant-metastases-category-max-vs.xlsx
+++ b/ValueSet-tnm-distant-metastases-category-max-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T11:23:31+00:00</t>
+    <t>2024-05-28T11:48:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-tnm-distant-metastases-category-max-vs.xlsx
+++ b/ValueSet-tnm-distant-metastases-category-max-vs.xlsx
@@ -7,14 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include ValueSets" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from Krebsstadium Cod" r:id="rId5" sheetId="3"/>
+    <sheet name="Include ValueSet #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Property</t>
   </si>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T11:48:18+00:00</t>
+    <t>2024-09-17T19:55:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -76,6 +76,12 @@
     <t>IDG Institut für digitale Gesundheitsdaten RLP gGmbH (https://www.idg-rlp.de/, info@idg-rlp.de)</t>
   </si>
   <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
@@ -104,9 +110,6 @@
   </si>
   <si>
     <t>All codes</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>System URI</t>
@@ -246,7 +249,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -348,20 +351,28 @@
       <c r="A12" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>25</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -383,12 +394,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -410,28 +421,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-tnm-distant-metastases-category-max-vs.xlsx
+++ b/ValueSet-tnm-distant-metastases-category-max-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T19:55:11+00:00</t>
+    <t>2024-09-18T10:41:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-tnm-distant-metastases-category-max-vs.xlsx
+++ b/ValueSet-tnm-distant-metastases-category-max-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T10:41:35+00:00</t>
+    <t>2024-09-18T11:11:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-tnm-distant-metastases-category-max-vs.xlsx
+++ b/ValueSet-tnm-distant-metastases-category-max-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T11:11:15+00:00</t>
+    <t>2024-10-31T11:09:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-tnm-distant-metastases-category-max-vs.xlsx
+++ b/ValueSet-tnm-distant-metastases-category-max-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T11:09:37+00:00</t>
+    <t>2024-10-31T11:09:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-tnm-distant-metastases-category-max-vs.xlsx
+++ b/ValueSet-tnm-distant-metastases-category-max-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T11:09:58+00:00</t>
+    <t>2024-12-02T15:35:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
